--- a/profitlink.xlsx
+++ b/profitlink.xlsx
@@ -28,7 +28,7 @@
     <t>Daraz BD</t>
   </si>
   <si>
-    <t>462aa60d4e674104a7527b85a7907862-1657086788931-00407-_7BBmp</t>
+    <t>mG7BCvX7I96uxKqFHPLoK9QuWZelF08vVbsifsoD</t>
   </si>
   <si>
     <t>https://www.techlandbd.com/</t>
